--- a/Algorithms for Data Science/HW4/HW4_Q2 Tree.xlsx
+++ b/Algorithms for Data Science/HW4/HW4_Q2 Tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachhatzenbeller/Documents/GitHub/Data-Science-Masters/Algorithms for Data Science/HW4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhatz\Documents\GitHub\Data-Science-Masters\Algorithms for Data Science\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C2A60-C0A1-BE48-87A3-67D738E10AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1E06E-DEE6-4A30-A68D-53985A4238DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16880" activeTab="1" xr2:uid="{4FDC0E11-AF12-7E45-99D7-07EE08479AD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4FDC0E11-AF12-7E45-99D7-07EE08479AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="MiniMax" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="15">
   <si>
     <t>Max</t>
   </si>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -364,6 +364,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,22 +413,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -418,18 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1939,9 +1936,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1979,7 +1976,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2085,7 +2082,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2227,7 +2224,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2235,48 +2232,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F2DC6-B2BC-F741-866D-9B8F8F01A549}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="5.83203125" customWidth="1"/>
+    <col min="19" max="19" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P2" s="26" t="s">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="1:33" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-    </row>
-    <row r="4" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="1:39" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="7"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2289,9 +2286,9 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
@@ -2308,9 +2305,9 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+    <row r="7" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7"/>
       <c r="S7" s="1" t="s">
         <v>4</v>
@@ -2320,28 +2317,36 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
         <v>11</v>
       </c>
       <c r="T8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="25" t="s">
+      <c r="AK8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="26"/>
+    </row>
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="28"/>
+    </row>
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2351,16 +2356,19 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="30"/>
+    </row>
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="12"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="7"/>
       <c r="D12" s="12"/>
       <c r="G12" s="1"/>
@@ -2384,9 +2392,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7"/>
       <c r="D13" s="12"/>
       <c r="G13" s="1" t="s">
@@ -2418,9 +2426,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
       <c r="G14" s="1" t="s">
@@ -2448,7 +2456,7 @@
       </c>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="12"/>
       <c r="G15" t="s">
         <v>11</v>
@@ -2470,27 +2478,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="26"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D17" s="12"/>
       <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="28"/>
+    </row>
+    <row r="18" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="12"/>
       <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="30"/>
+    </row>
+    <row r="19" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="12"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="7"/>
       <c r="D20" s="5" t="s">
         <v>4</v>
@@ -2539,9 +2558,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="7"/>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -2598,9 +2617,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+    <row r="22" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5" t="s">
         <v>4</v>
@@ -2653,7 +2672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
@@ -2673,40 +2692,51 @@
       <c r="Q23" s="8">
         <v>0</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="22">
         <v>-1</v>
       </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="18"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
       <c r="AB23" t="s">
         <v>11</v>
       </c>
       <c r="AC23" s="8">
         <v>1</v>
       </c>
-      <c r="AH23" s="16">
+      <c r="AH23" s="22">
         <v>-1</v>
       </c>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="18"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="24"/>
+    </row>
+    <row r="24" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="12"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D25" s="12"/>
       <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="26"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="28"/>
+    </row>
+    <row r="27" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="12"/>
       <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="30"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -2744,7 +2774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
@@ -2820,44 +2850,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="16">
+    <row r="31" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="22">
         <v>0</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="16">
+      <c r="J31" s="22">
         <v>1</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-      <c r="P31" s="16">
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="P31" s="22">
         <v>0</v>
       </c>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
-      <c r="AB31" s="16">
+      <c r="Q31" s="23"/>
+      <c r="R31" s="24"/>
+      <c r="AB31" s="22">
         <v>1</v>
       </c>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="18"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="AK8:AM10"/>
+    <mergeCell ref="AK16:AM18"/>
+    <mergeCell ref="AK25:AM27"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="P2:X3"/>
     <mergeCell ref="P31:R31"/>
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="AB31:AD31"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="D9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2869,60 +2902,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A26D464-1BDD-B14D-9C77-ADA68E0D8B5B}">
   <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8:AM27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P2" s="26" t="s">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
-    </row>
-    <row r="3" spans="1:39" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-    </row>
-    <row r="4" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="1:39" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="7"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
@@ -2933,15 +2966,15 @@
       <c r="U6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-    </row>
-    <row r="7" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+    </row>
+    <row r="7" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7"/>
       <c r="S7" s="1" t="s">
         <v>4</v>
@@ -2951,7 +2984,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="S8" t="s">
         <v>5</v>
       </c>
@@ -2962,13 +2995,13 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="AK8" s="19" t="s">
+      <c r="AK8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="20"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="26"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="S9" t="s">
         <v>6</v>
       </c>
@@ -2976,21 +3009,21 @@
         <f>"+∞"</f>
         <v>+∞</v>
       </c>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="22"/>
-    </row>
-    <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="24"/>
-    </row>
-    <row r="11" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="28"/>
+    </row>
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="30"/>
+    </row>
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="7"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3012,9 +3045,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7"/>
       <c r="G13" s="1" t="s">
         <v>3</v>
@@ -3044,9 +3077,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="7"/>
       <c r="G14" s="1" t="s">
         <v>4</v>
@@ -3072,7 +3105,7 @@
       </c>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>6</v>
       </c>
@@ -3124,13 +3157,13 @@
       <c r="AG16" s="8">
         <v>1</v>
       </c>
-      <c r="AK16" s="19" t="s">
+      <c r="AK16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="20"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="26"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>11</v>
       </c>
@@ -3149,11 +3182,11 @@
       <c r="AF17" s="8">
         <v>-1</v>
       </c>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="22"/>
-    </row>
-    <row r="18" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="28"/>
+    </row>
+    <row r="18" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S18" t="s">
         <v>5</v>
       </c>
@@ -3163,16 +3196,16 @@
       <c r="U18" t="s">
         <v>6</v>
       </c>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="24"/>
-    </row>
-    <row r="19" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="30"/>
+    </row>
+    <row r="19" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
@@ -3221,9 +3254,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="7"/>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -3280,9 +3313,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+    <row r="22" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
         <v>4</v>
@@ -3335,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>5</v>
       </c>
@@ -3362,11 +3395,11 @@
       <c r="Q23" s="8">
         <v>0</v>
       </c>
-      <c r="V23" s="16">
+      <c r="V23" s="22">
         <v>-1</v>
       </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="18"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
       <c r="AB23" t="s">
         <v>5</v>
       </c>
@@ -3376,13 +3409,13 @@
       <c r="AD23" s="8">
         <v>1</v>
       </c>
-      <c r="AH23" s="16">
+      <c r="AH23" s="22">
         <v>-1</v>
       </c>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="18"/>
-    </row>
-    <row r="24" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="24"/>
+    </row>
+    <row r="24" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>6</v>
       </c>
@@ -3403,11 +3436,11 @@
         <f>"+∞"</f>
         <v>+∞</v>
       </c>
-      <c r="V24" s="32" t="s">
+      <c r="V24" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
       <c r="AB24" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +3449,7 @@
         <v>+∞</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>11</v>
       </c>
@@ -3435,32 +3468,32 @@
       <c r="Q25" s="8">
         <v>0</v>
       </c>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
       <c r="AB25" t="s">
         <v>11</v>
       </c>
       <c r="AC25" s="8">
         <v>1</v>
       </c>
-      <c r="AK25" s="19" t="s">
+      <c r="AK25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="20"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="22"/>
-    </row>
-    <row r="27" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AK27" s="23"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="24"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="26"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="28"/>
+    </row>
+    <row r="27" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="30"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3498,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
@@ -3536,7 +3569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
@@ -3574,30 +3607,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="16">
+    <row r="31" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="22">
         <v>0</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="J31" s="16">
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="J31" s="22">
         <v>1</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-      <c r="P31" s="16">
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="P31" s="22">
         <v>0</v>
       </c>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
-      <c r="AB31" s="16">
+      <c r="Q31" s="23"/>
+      <c r="R31" s="24"/>
+      <c r="AB31" s="22">
         <v>1</v>
       </c>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="18"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="V24:X25"/>
     <mergeCell ref="AK8:AM10"/>
     <mergeCell ref="AK16:AM18"/>
     <mergeCell ref="AK25:AM27"/>
@@ -3607,11 +3645,6 @@
     <mergeCell ref="A12:B14"/>
     <mergeCell ref="A20:B22"/>
     <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="V24:X25"/>
     <mergeCell ref="V23:X23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
